--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>2</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="C2">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C2">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C2">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>8</v>

--- a/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
